--- a/POO/CRC.xlsx
+++ b/POO/CRC.xlsx
@@ -116,17 +116,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -136,15 +125,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -156,8 +136,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -170,7 +196,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -180,52 +208,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -233,11 +232,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -250,22 +262,22 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,11 +570,11 @@
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -570,328 +582,257 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G2" s="17"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="7" t="s">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="7" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="7" t="s">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="7" t="s">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="10"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="7" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="7" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2"/>
-      <c r="G17" s="14" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="F17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="10"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="4"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="7" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="4"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="4"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="5"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="5"/>
+      <c r="D19" s="2"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
